--- a/DragAndDrop/Assets/06.Data/Excel/Stage2/General1/Stage2_Cactus_climb_up_excel.xlsx
+++ b/DragAndDrop/Assets/06.Data/Excel/Stage2/General1/Stage2_Cactus_climb_up_excel.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shingu104\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\01.junheeStudy\Team_Project\idle\DragAndDrop\Assets\06.Data\Excel\Stage2\General1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C637471-F009-4428-A6B4-BAB9AC95BC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -361,11 +362,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -386,42 +387,57 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>9.8000000000000007</v>
+        <v>13.6</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>11.3</v>
+        <v>14.3</v>
       </c>
       <c r="B3">
         <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>12.8</v>
+        <v>15.05</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>14.3</v>
+        <v>15.8</v>
       </c>
       <c r="B5">
         <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>15.8</v>
+        <v>16.55</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -431,45 +447,118 @@
       <c r="B7">
         <v>1</v>
       </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>18.75</v>
+        <v>18.05</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>20.25</v>
+        <v>18.8</v>
       </c>
       <c r="B9">
         <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>21.75</v>
+        <v>19.55</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>23.25</v>
+        <v>20.3</v>
       </c>
       <c r="B11">
         <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>24.75</v>
+        <v>21.1</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>21.8</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>22.6</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>23.3</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>24.1</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>24.8</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
